--- a/data-raw/dict.xlsx
+++ b/data-raw/dict.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/PBET_HMTM2022/data-raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/pbethmtm2022/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3730CA86-9CD8-C74E-8623-F458F03C491F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EA85ADB-9B2E-5C41-9059-8BD9313FB938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="500" windowWidth="35440" windowHeight="20620" xr2:uid="{1720BA4F-4EF0-E44D-9DE1-00CF51B15D88}"/>
+    <workbookView xWindow="3880" yWindow="500" windowWidth="35440" windowHeight="20620" xr2:uid="{1720BA4F-4EF0-E44D-9DE1-00CF51B15D88}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>key</t>
   </si>
@@ -88,6 +88,15 @@
   </si>
   <si>
     <t>hmtm_not_possible</t>
+  </si>
+  <si>
+    <t>click_here</t>
+  </si>
+  <si>
+    <t>click here.</t>
+  </si>
+  <si>
+    <t>klick hier.</t>
   </si>
 </sst>
 </file>
@@ -448,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{693362BF-E1CC-6F41-8538-645486CE190F}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -525,6 +534,17 @@
         <v>12</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-raw/dict.xlsx
+++ b/data-raw/dict.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/pbethmtm2022/data-raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylviaschmidt 1/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EA85ADB-9B2E-5C41-9059-8BD9313FB938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5730728-A4A3-0346-9F26-9C2BCBF094C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3880" yWindow="500" windowWidth="35440" windowHeight="20620" xr2:uid="{1720BA4F-4EF0-E44D-9DE1-00CF51B15D88}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{1720BA4F-4EF0-E44D-9DE1-00CF51B15D88}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>key</t>
   </si>
@@ -54,27 +54,12 @@
     <t>Hello, thank you for your interest in our study! Before you can book an appointment, we just need to check a few things.</t>
   </si>
   <si>
-    <t>Hallo, danke für dein Interesse an unserer Studie! Bevor du ein Termin vereinbaren kannst, müssen wir ein paar Sachen bestätigen.</t>
-  </si>
-  <si>
     <t>Are you a student at the Hochschule für Musik, Theater und Medien Hannover (HMTMH)?</t>
   </si>
   <si>
-    <t>Bist du ein/e Student*in an der Hochschule für Musik, Theater und Medien Hannover (HMTMH)?</t>
-  </si>
-  <si>
-    <t>Wie hast du von dieser Studie gehört?</t>
-  </si>
-  <si>
     <t>Great, thank you for your answers. You can now proceed to booking:</t>
   </si>
   <si>
-    <t xml:space="preserve">Prima, danke für deine Antworten. Du kannst jetzt zur Buchung fortfahren: </t>
-  </si>
-  <si>
-    <t>Leider sind andere Instrumente nicht möglich, deshalb kannst du diesmal nicht mitmachen. Danke für dein Interesse!</t>
-  </si>
-  <si>
     <t>hmtm_hello</t>
   </si>
   <si>
@@ -96,7 +81,67 @@
     <t>click here.</t>
   </si>
   <si>
-    <t>klick hier.</t>
+    <t>username</t>
+  </si>
+  <si>
+    <t>hmtm_intro_text1</t>
+  </si>
+  <si>
+    <t>hmtm_intro_text2</t>
+  </si>
+  <si>
+    <t>Welcome to HMTM's new Playing By Ear Study!</t>
+  </si>
+  <si>
+    <t>hmtm_welcome</t>
+  </si>
+  <si>
+    <t>Please enter an anonymous username that only you will know.</t>
+  </si>
+  <si>
+    <t>hmtm_finish</t>
+  </si>
+  <si>
+    <t>You have finished the study, thank you very much!</t>
+  </si>
+  <si>
+    <t>First you will do a playing by ear test, on your instrument, followed by a singing test. Afterwards, we will ask you a few questions about yourself.</t>
+  </si>
+  <si>
+    <t>Hallo, danke für Ihr Interesse an unserer Studie! Bevor Sie einen Termin vereinbaren können, müssen wir ein paar Sachen bestätigen.</t>
+  </si>
+  <si>
+    <t>Sind Sie ein/e Student*in an der Hochschule für Musik, Theater und Medien Hannover (HMTMH)?</t>
+  </si>
+  <si>
+    <t>Wie haben Sie von dieser Studie gehört?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prima, danke für Ihre Antworten. Sie können jetzt zur Buchung fortfahren: </t>
+  </si>
+  <si>
+    <t>Leider sind andere Instrumente nicht möglich, deshalb können Sie diesmal leider nicht mitmachen. Danke für Ihr Interesse!</t>
+  </si>
+  <si>
+    <t>klicken Sie hier.</t>
+  </si>
+  <si>
+    <t>Bitte geben Sie einen anonymen Usernamen ein den nur Sie kennen.</t>
+  </si>
+  <si>
+    <t>First you will do a singing test, then a playing by ear test on your instrument. Afterwards, we will ask you a few questions about yourself.</t>
+  </si>
+  <si>
+    <t>Willkommen zu HMTM's neuer Nach-Gehör-Spiel-Studie!</t>
+  </si>
+  <si>
+    <t>Zuerst werden Sie einen Nach-Gehör-Spiel-Test auf Ihrem Instrument durchführen, gefolgt von einem Gesangstest. Danach werden wir Ihnen ein paar Fragen über Sie selbst stellen.</t>
+  </si>
+  <si>
+    <t>Zuerst werden Sie einen Gesangstest durchführen, gefolgt von einem Nach-Gehör-Spiel-Test auf Ihrem Instrument. Danach werden wir Ihnen ein paar Fragen über Sie selbst stellen.</t>
+  </si>
+  <si>
+    <t>Sie haben die Studie abgeschlossen, vielen herzlichen Dank!</t>
   </si>
 </sst>
 </file>
@@ -140,9 +185,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,15 +505,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{693362BF-E1CC-6F41-8538-645486CE190F}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="118.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="127.83203125" customWidth="1"/>
+    <col min="3" max="3" width="109.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -481,68 +531,123 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
